--- a/doc/other_doc/5_作業時間票(香川2次).xlsx
+++ b/doc/other_doc/5_作業時間票(香川2次).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>クラス名</t>
   </si>
@@ -335,6 +335,16 @@
     <t>香川</t>
     <rPh sb="0" eb="2">
       <t>カガワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システムテスト仕様書作成</t>
+    <rPh sb="7" eb="10">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1265,6 +1275,33 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -1274,6 +1311,164 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1301,16 +1496,226 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1322,401 +1727,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -2026,8 +2036,8 @@
   </sheetPr>
   <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AA2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2047,97 +2057,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="107" t="s">
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="101" t="s">
+      <c r="I1" s="134"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="101" t="s">
+      <c r="L1" s="134"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72" t="s">
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="73" t="s">
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="66" t="s">
+      <c r="Y1" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="73" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="68"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="100"/>
       <c r="AH1" s="1"/>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="107" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="101" t="s">
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104" t="s">
+      <c r="L2" s="134"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="74">
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="106">
         <v>42909</v>
       </c>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="103"/>
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="8.25" customHeight="1" thickTop="1">
@@ -2209,53 +2219,53 @@
       <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:35" ht="19.5" customHeight="1">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="91" t="s">
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="82" t="s">
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="83"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="75" t="s">
+      <c r="W5" s="115"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="68"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="100"/>
     </row>
     <row r="6" spans="1:35" ht="19.5" customHeight="1">
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="113"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="145"/>
       <c r="G6" s="22">
         <v>1</v>
       </c>
@@ -2301,25 +2311,25 @@
       <c r="U6" s="24">
         <v>15</v>
       </c>
-      <c r="V6" s="85"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="78"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="109"/>
+      <c r="AA6" s="109"/>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="109"/>
+      <c r="AE6" s="109"/>
+      <c r="AF6" s="109"/>
+      <c r="AG6" s="110"/>
     </row>
     <row r="7" spans="1:35" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="116"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -2335,27 +2345,27 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="81"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="112"/>
+      <c r="AG7" s="113"/>
     </row>
     <row r="8" spans="1:35" ht="24" customHeight="1" thickTop="1">
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
       <c r="G8" s="8">
         <v>0.5</v>
       </c>
@@ -2373,38 +2383,40 @@
       <c r="S8" s="9"/>
       <c r="T8" s="8"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="63">
+      <c r="V8" s="95">
         <f t="shared" ref="V8:V11" si="0">SUM(G8:U8)</f>
         <v>0.5</v>
       </c>
-      <c r="W8" s="64"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="142"/>
-      <c r="AG8" s="143"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="44"/>
       <c r="AI8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
       <c r="A9"/>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="29">
         <v>0.75</v>
       </c>
-      <c r="H9" s="30"/>
+      <c r="H9" s="29">
+        <v>0.8</v>
+      </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
@@ -2418,34 +2430,34 @@
       <c r="S9" s="30"/>
       <c r="T9" s="29"/>
       <c r="U9" s="34"/>
-      <c r="V9" s="47">
+      <c r="V9" s="54">
         <f t="shared" ref="V9" si="1">SUM(G9:U9)</f>
-        <v>0.75</v>
-      </c>
-      <c r="W9" s="48"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="52"/>
+        <v>1.55</v>
+      </c>
+      <c r="W9" s="55"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="154"/>
+      <c r="AE9" s="154"/>
+      <c r="AF9" s="154"/>
+      <c r="AG9" s="155"/>
       <c r="AI9" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="21" customHeight="1">
-      <c r="A10" s="140"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="35"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -2461,31 +2473,31 @@
       <c r="S10" s="36"/>
       <c r="T10" s="35"/>
       <c r="U10" s="37"/>
-      <c r="V10" s="38">
+      <c r="V10" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="39"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="144"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="145"/>
-      <c r="AB10" s="145"/>
-      <c r="AC10" s="145"/>
-      <c r="AD10" s="145"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="145"/>
-      <c r="AG10" s="146"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="53"/>
     </row>
     <row r="11" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="140"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -2501,31 +2513,31 @@
       <c r="S11" s="30"/>
       <c r="T11" s="29"/>
       <c r="U11" s="34"/>
-      <c r="V11" s="47">
+      <c r="V11" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="48"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="52"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="154"/>
+      <c r="AF11" s="154"/>
+      <c r="AG11" s="155"/>
     </row>
     <row r="12" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="140"/>
-      <c r="B12" s="59" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -2541,12 +2553,12 @@
       <c r="S12" s="18"/>
       <c r="T12" s="17"/>
       <c r="U12" s="25"/>
-      <c r="V12" s="56">
+      <c r="V12" s="75">
         <f t="shared" ref="V12" si="2">SUM(G12:U12)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="57"/>
-      <c r="X12" s="58"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="77"/>
       <c r="Y12" s="26"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
@@ -2558,14 +2570,14 @@
       <c r="AG12" s="28"/>
     </row>
     <row r="13" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="140"/>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="29"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -2581,31 +2593,31 @@
       <c r="S13" s="30"/>
       <c r="T13" s="29"/>
       <c r="U13" s="32"/>
-      <c r="V13" s="47">
+      <c r="V13" s="54">
         <f t="shared" ref="V13" si="3">SUM(G13:U13)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="48"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="121"/>
-      <c r="AA13" s="121"/>
-      <c r="AB13" s="121"/>
-      <c r="AC13" s="121"/>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="121"/>
-      <c r="AF13" s="121"/>
-      <c r="AG13" s="122"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="80"/>
     </row>
     <row r="14" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="140"/>
-      <c r="B14" s="59" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -2621,31 +2633,31 @@
       <c r="S14" s="18"/>
       <c r="T14" s="17"/>
       <c r="U14" s="31"/>
-      <c r="V14" s="56">
+      <c r="V14" s="75">
         <f t="shared" ref="V14" si="4">SUM(G14:U14)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="57"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="126"/>
-      <c r="Z14" s="127"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="127"/>
-      <c r="AC14" s="127"/>
-      <c r="AD14" s="127"/>
-      <c r="AE14" s="127"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="128"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="83"/>
     </row>
     <row r="15" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="140"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="46"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="29"/>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
@@ -2661,31 +2673,31 @@
       <c r="S15" s="30"/>
       <c r="T15" s="29"/>
       <c r="U15" s="32"/>
-      <c r="V15" s="47">
+      <c r="V15" s="54">
         <f t="shared" ref="V15" si="5">SUM(G15:U15)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="48"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="121"/>
-      <c r="AA15" s="121"/>
-      <c r="AB15" s="121"/>
-      <c r="AC15" s="121"/>
-      <c r="AD15" s="121"/>
-      <c r="AE15" s="121"/>
-      <c r="AF15" s="121"/>
-      <c r="AG15" s="122"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="80"/>
     </row>
     <row r="16" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="140"/>
-      <c r="B16" s="59" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -2701,31 +2713,31 @@
       <c r="S16" s="18"/>
       <c r="T16" s="17"/>
       <c r="U16" s="31"/>
-      <c r="V16" s="56">
+      <c r="V16" s="75">
         <f t="shared" ref="V16" si="6">SUM(G16:U16)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="57"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="127"/>
-      <c r="AG16" s="128"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="83"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="140"/>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="29"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -2741,31 +2753,31 @@
       <c r="S17" s="30"/>
       <c r="T17" s="29"/>
       <c r="U17" s="32"/>
-      <c r="V17" s="47">
+      <c r="V17" s="54">
         <f t="shared" ref="V17" si="7">SUM(G17:U17)</f>
         <v>0</v>
       </c>
-      <c r="W17" s="48"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="121"/>
-      <c r="AA17" s="121"/>
-      <c r="AB17" s="121"/>
-      <c r="AC17" s="121"/>
-      <c r="AD17" s="121"/>
-      <c r="AE17" s="121"/>
-      <c r="AF17" s="121"/>
-      <c r="AG17" s="122"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="80"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="140"/>
-      <c r="B18" s="59" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -2781,31 +2793,31 @@
       <c r="S18" s="18"/>
       <c r="T18" s="17"/>
       <c r="U18" s="31"/>
-      <c r="V18" s="56">
+      <c r="V18" s="75">
         <f t="shared" ref="V18" si="8">SUM(G18:U18)</f>
         <v>0</v>
       </c>
-      <c r="W18" s="57"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="126"/>
-      <c r="Z18" s="127"/>
-      <c r="AA18" s="127"/>
-      <c r="AB18" s="127"/>
-      <c r="AC18" s="127"/>
-      <c r="AD18" s="127"/>
-      <c r="AE18" s="127"/>
-      <c r="AF18" s="127"/>
-      <c r="AG18" s="128"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="83"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="140"/>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="29"/>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -2821,31 +2833,31 @@
       <c r="S19" s="30"/>
       <c r="T19" s="29"/>
       <c r="U19" s="34"/>
-      <c r="V19" s="47">
+      <c r="V19" s="54">
         <f t="shared" ref="V19:V30" si="9">SUM(G19:U19)</f>
         <v>0</v>
       </c>
-      <c r="W19" s="48"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="121"/>
-      <c r="AD19" s="121"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="121"/>
-      <c r="AG19" s="122"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="80"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="59" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="17">
         <v>4</v>
       </c>
@@ -2863,34 +2875,34 @@
       <c r="S20" s="18"/>
       <c r="T20" s="17"/>
       <c r="U20" s="33"/>
-      <c r="V20" s="56">
+      <c r="V20" s="75">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="W20" s="57"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="126"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="128"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="83"/>
       <c r="AI20" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="140"/>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="29"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -2906,31 +2918,31 @@
       <c r="S21" s="30"/>
       <c r="T21" s="29"/>
       <c r="U21" s="34"/>
-      <c r="V21" s="47">
+      <c r="V21" s="54">
         <f>SUM(G21:U21)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="48"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="121"/>
-      <c r="AD21" s="121"/>
-      <c r="AE21" s="121"/>
-      <c r="AF21" s="121"/>
-      <c r="AG21" s="122"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="80"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="140"/>
-      <c r="B22" s="53" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="35"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
@@ -2946,31 +2958,31 @@
       <c r="S22" s="36"/>
       <c r="T22" s="35"/>
       <c r="U22" s="37"/>
-      <c r="V22" s="38">
+      <c r="V22" s="45">
         <f t="shared" ref="V22:V29" si="10">SUM(G22:U22)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="39"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="43"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="90"/>
+      <c r="AG22" s="91"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="140"/>
-      <c r="B23" s="44" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
       <c r="G23" s="29"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -2986,35 +2998,37 @@
       <c r="S23" s="30"/>
       <c r="T23" s="29"/>
       <c r="U23" s="34"/>
-      <c r="V23" s="47">
+      <c r="V23" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W23" s="48"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="120"/>
-      <c r="Z23" s="121"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="121"/>
-      <c r="AC23" s="121"/>
-      <c r="AD23" s="121"/>
-      <c r="AE23" s="121"/>
-      <c r="AF23" s="121"/>
-      <c r="AG23" s="122"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="80"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="140"/>
-      <c r="B24" s="53" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="35">
         <v>1.75</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="36">
+        <v>2.5</v>
+      </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
@@ -3028,31 +3042,31 @@
       <c r="S24" s="36"/>
       <c r="T24" s="35"/>
       <c r="U24" s="37"/>
-      <c r="V24" s="38">
+      <c r="V24" s="45">
         <f t="shared" si="10"/>
-        <v>1.75</v>
-      </c>
-      <c r="W24" s="39"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="43"/>
+        <v>4.25</v>
+      </c>
+      <c r="W24" s="46"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="90"/>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AD24" s="90"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="91"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="140"/>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="94"/>
       <c r="G25" s="29"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
@@ -3068,31 +3082,31 @@
       <c r="S25" s="30"/>
       <c r="T25" s="29"/>
       <c r="U25" s="34"/>
-      <c r="V25" s="47">
+      <c r="V25" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W25" s="48"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="121"/>
-      <c r="AA25" s="121"/>
-      <c r="AB25" s="121"/>
-      <c r="AC25" s="121"/>
-      <c r="AD25" s="121"/>
-      <c r="AE25" s="121"/>
-      <c r="AF25" s="121"/>
-      <c r="AG25" s="122"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="80"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A26" s="140"/>
-      <c r="B26" s="53" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="35"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
@@ -3108,31 +3122,31 @@
       <c r="S26" s="36"/>
       <c r="T26" s="35"/>
       <c r="U26" s="37"/>
-      <c r="V26" s="38">
+      <c r="V26" s="45">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W26" s="39"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="43"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="90"/>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AD26" s="90"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="90"/>
+      <c r="AG26" s="91"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="140"/>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
@@ -3148,31 +3162,31 @@
       <c r="S27" s="30"/>
       <c r="T27" s="29"/>
       <c r="U27" s="34"/>
-      <c r="V27" s="47">
+      <c r="V27" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W27" s="48"/>
-      <c r="X27" s="49"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="121"/>
-      <c r="AD27" s="121"/>
-      <c r="AE27" s="121"/>
-      <c r="AF27" s="121"/>
-      <c r="AG27" s="122"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="80"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="140"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="35"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36"/>
@@ -3188,31 +3202,35 @@
       <c r="S28" s="36"/>
       <c r="T28" s="35"/>
       <c r="U28" s="37"/>
-      <c r="V28" s="38">
+      <c r="V28" s="45">
         <f t="shared" ref="V28" si="11">SUM(G28:U28)</f>
         <v>0</v>
       </c>
-      <c r="W28" s="39"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="43"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="90"/>
+      <c r="AD28" s="90"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="90"/>
+      <c r="AG28" s="91"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="140"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="46"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94"/>
       <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
+      <c r="H29" s="30">
+        <v>1</v>
+      </c>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
@@ -3226,29 +3244,29 @@
       <c r="S29" s="30"/>
       <c r="T29" s="29"/>
       <c r="U29" s="34"/>
-      <c r="V29" s="47">
+      <c r="V29" s="54">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="48"/>
-      <c r="X29" s="49"/>
-      <c r="Y29" s="120"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="121"/>
-      <c r="AD29" s="121"/>
-      <c r="AE29" s="121"/>
-      <c r="AF29" s="121"/>
-      <c r="AG29" s="122"/>
+        <v>1</v>
+      </c>
+      <c r="W29" s="55"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="80"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="140"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
@@ -3264,31 +3282,31 @@
       <c r="S30" s="18"/>
       <c r="T30" s="17"/>
       <c r="U30" s="33"/>
-      <c r="V30" s="56">
+      <c r="V30" s="75">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W30" s="57"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="126"/>
-      <c r="Z30" s="127"/>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="127"/>
-      <c r="AC30" s="127"/>
-      <c r="AD30" s="127"/>
-      <c r="AE30" s="127"/>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="128"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="82"/>
+      <c r="AF30" s="82"/>
+      <c r="AG30" s="83"/>
     </row>
     <row r="31" spans="1:35" ht="21" customHeight="1">
-      <c r="A31" s="140"/>
-      <c r="B31" s="147" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="149"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3304,34 +3322,34 @@
       <c r="S31" s="12"/>
       <c r="T31" s="11"/>
       <c r="U31" s="13"/>
-      <c r="V31" s="123">
+      <c r="V31" s="72">
         <f t="shared" ref="V31:V33" si="12">SUM(G31:U31)</f>
         <v>0</v>
       </c>
-      <c r="W31" s="124"/>
-      <c r="X31" s="125"/>
-      <c r="Y31" s="150"/>
-      <c r="Z31" s="151"/>
-      <c r="AA31" s="151"/>
-      <c r="AB31" s="151"/>
-      <c r="AC31" s="151"/>
-      <c r="AD31" s="151"/>
-      <c r="AE31" s="151"/>
-      <c r="AF31" s="151"/>
-      <c r="AG31" s="152"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="65"/>
       <c r="AI31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A32" s="140"/>
-      <c r="B32" s="59" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -3347,33 +3365,35 @@
       <c r="S32" s="18"/>
       <c r="T32" s="17"/>
       <c r="U32" s="19"/>
-      <c r="V32" s="56">
+      <c r="V32" s="75">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W32" s="57"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="153"/>
-      <c r="Z32" s="154"/>
-      <c r="AA32" s="154"/>
-      <c r="AB32" s="154"/>
-      <c r="AC32" s="154"/>
-      <c r="AD32" s="154"/>
-      <c r="AE32" s="154"/>
-      <c r="AF32" s="154"/>
-      <c r="AG32" s="155"/>
+      <c r="W32" s="76"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="68"/>
     </row>
     <row r="33" spans="1:35" ht="21" customHeight="1">
-      <c r="A33" s="140"/>
-      <c r="B33" s="147" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="149"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="12">
+        <v>2.7</v>
+      </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -3387,40 +3407,40 @@
       <c r="S33" s="12"/>
       <c r="T33" s="11"/>
       <c r="U33" s="13"/>
-      <c r="V33" s="123">
+      <c r="V33" s="72">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="124"/>
-      <c r="X33" s="125"/>
-      <c r="Y33" s="150"/>
-      <c r="Z33" s="151"/>
-      <c r="AA33" s="151"/>
-      <c r="AB33" s="151"/>
-      <c r="AC33" s="151"/>
-      <c r="AD33" s="151"/>
-      <c r="AE33" s="151"/>
-      <c r="AF33" s="151"/>
-      <c r="AG33" s="152"/>
+        <v>2.7</v>
+      </c>
+      <c r="W33" s="73"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="65"/>
       <c r="AI33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="21" customHeight="1" thickBot="1">
-      <c r="B34" s="137" t="s">
+      <c r="B34" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="139"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="21">
         <f t="shared" ref="G34:U34" si="13">SUM(G8:G33)</f>
         <v>7</v>
       </c>
       <c r="H34" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I34" s="21">
         <f t="shared" si="13"/>
@@ -3474,18 +3494,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V34" s="133"/>
-      <c r="W34" s="134"/>
-      <c r="X34" s="135"/>
-      <c r="Y34" s="129"/>
-      <c r="Z34" s="130"/>
-      <c r="AA34" s="130"/>
-      <c r="AB34" s="130"/>
-      <c r="AC34" s="130"/>
-      <c r="AD34" s="130"/>
-      <c r="AE34" s="130"/>
-      <c r="AF34" s="130"/>
-      <c r="AG34" s="131"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="86"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="70"/>
+      <c r="AE34" s="70"/>
+      <c r="AF34" s="70"/>
+      <c r="AG34" s="71"/>
     </row>
     <row r="35" spans="1:35" ht="21.75" customHeight="1" thickBot="1">
       <c r="B35" s="3"/>
@@ -3506,16 +3526,16 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="132" t="s">
+      <c r="T35" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="132"/>
-      <c r="V35" s="136">
+      <c r="U35" s="84"/>
+      <c r="V35" s="88">
         <f>SUM(V8:X33)</f>
-        <v>7</v>
-      </c>
-      <c r="W35" s="136"/>
-      <c r="X35" s="136"/>
+        <v>14</v>
+      </c>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
@@ -3538,59 +3558,32 @@
     <row r="45" spans="1:35" ht="19.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="A10:A33"/>
-    <mergeCell ref="Y8:AG8"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="Y10:AG10"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="Y31:AG31"/>
-    <mergeCell ref="Y33:AG33"/>
-    <mergeCell ref="Y32:AG32"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="Y34:AG34"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y19:AG19"/>
-    <mergeCell ref="Y20:AG20"/>
-    <mergeCell ref="Y21:AG21"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y30:AG30"/>
-    <mergeCell ref="Y22:AG22"/>
-    <mergeCell ref="Y23:AG23"/>
-    <mergeCell ref="Y24:AG24"/>
-    <mergeCell ref="Y25:AG25"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AG26"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AG27"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AG29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AG16"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="Y15:AG15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AG18"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AG14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AG17"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AG9"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="Y13:AG13"/>
+    <mergeCell ref="Y11:AG11"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="V28:X28"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="Y1:AA2"/>
     <mergeCell ref="U1:W1"/>
@@ -3612,34 +3605,61 @@
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="B5:F7"/>
     <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="Y15:AG15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AG18"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AG14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AG17"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y30:AG30"/>
+    <mergeCell ref="Y22:AG22"/>
+    <mergeCell ref="Y23:AG23"/>
+    <mergeCell ref="Y24:AG24"/>
+    <mergeCell ref="Y25:AG25"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AG26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AG27"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AG29"/>
+    <mergeCell ref="V31:X31"/>
     <mergeCell ref="V30:X30"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="V28:X28"/>
     <mergeCell ref="Y28:AG28"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AG9"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="Y13:AG13"/>
-    <mergeCell ref="Y11:AG11"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="A10:A33"/>
+    <mergeCell ref="Y8:AG8"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="Y10:AG10"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="Y31:AG31"/>
+    <mergeCell ref="Y33:AG33"/>
+    <mergeCell ref="Y32:AG32"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="Y34:AG34"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y19:AG19"/>
+    <mergeCell ref="Y20:AG20"/>
+    <mergeCell ref="Y21:AG21"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AG16"/>
+    <mergeCell ref="V12:X12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/doc/other_doc/5_作業時間票(香川2次).xlsx
+++ b/doc/other_doc/5_作業時間票(香川2次).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>クラス名</t>
   </si>
@@ -345,6 +345,16 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>既存ドキュメントの修正</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1275,6 +1285,380 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1302,30 +1686,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1338,18 +1698,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1359,18 +1707,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1401,332 +1737,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -2036,8 +2046,8 @@
   </sheetPr>
   <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2057,97 +2067,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="139" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="134"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="133" t="s">
+      <c r="I1" s="102"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="134"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="133" t="s">
+      <c r="L1" s="102"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104" t="s">
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="105" t="s">
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="98" t="s">
+      <c r="Y1" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="105" t="s">
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="98"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="100"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="68"/>
       <c r="AH1" s="1"/>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="B2" s="129"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="139" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="134"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="133" t="s">
+      <c r="I2" s="102"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="134"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136" t="s">
+      <c r="L2" s="102"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="106">
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="74">
         <v>42909</v>
       </c>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="103"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="8.25" customHeight="1" thickTop="1">
@@ -2219,53 +2229,53 @@
       <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:35" ht="19.5" customHeight="1">
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="123" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="114" t="s">
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="115"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="107" t="s">
+      <c r="W5" s="83"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="99"/>
-      <c r="AC5" s="99"/>
-      <c r="AD5" s="99"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="100"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="68"/>
     </row>
     <row r="6" spans="1:35" ht="19.5" customHeight="1">
-      <c r="B6" s="143"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="145"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="22">
         <v>1</v>
       </c>
@@ -2311,25 +2321,25 @@
       <c r="U6" s="24">
         <v>15</v>
       </c>
-      <c r="V6" s="117"/>
-      <c r="W6" s="118"/>
-      <c r="X6" s="119"/>
-      <c r="Y6" s="108"/>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="109"/>
-      <c r="AC6" s="109"/>
-      <c r="AD6" s="109"/>
-      <c r="AE6" s="109"/>
-      <c r="AF6" s="109"/>
-      <c r="AG6" s="110"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="78"/>
     </row>
     <row r="7" spans="1:35" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B7" s="146"/>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="148"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -2345,27 +2355,27 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="120"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="112"/>
-      <c r="AB7" s="112"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="113"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="81"/>
     </row>
     <row r="8" spans="1:35" ht="24" customHeight="1" thickTop="1">
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
       <c r="G8" s="8">
         <v>0.5</v>
       </c>
@@ -2383,41 +2393,43 @@
       <c r="S8" s="9"/>
       <c r="T8" s="8"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="95">
+      <c r="V8" s="63">
         <f t="shared" ref="V8:V11" si="0">SUM(G8:U8)</f>
         <v>0.5</v>
       </c>
-      <c r="W8" s="96"/>
-      <c r="X8" s="97"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="44"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="139"/>
+      <c r="AA8" s="139"/>
+      <c r="AB8" s="139"/>
+      <c r="AC8" s="139"/>
+      <c r="AD8" s="139"/>
+      <c r="AE8" s="139"/>
+      <c r="AF8" s="139"/>
+      <c r="AG8" s="140"/>
       <c r="AI8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
       <c r="A9"/>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="29">
         <v>0.75</v>
       </c>
       <c r="H9" s="29">
         <v>0.8</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="30">
+        <v>0.75</v>
+      </c>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
@@ -2430,34 +2442,34 @@
       <c r="S9" s="30"/>
       <c r="T9" s="29"/>
       <c r="U9" s="34"/>
-      <c r="V9" s="54">
+      <c r="V9" s="41">
         <f t="shared" ref="V9" si="1">SUM(G9:U9)</f>
-        <v>1.55</v>
-      </c>
-      <c r="W9" s="55"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="154"/>
-      <c r="AB9" s="154"/>
-      <c r="AC9" s="154"/>
-      <c r="AD9" s="154"/>
-      <c r="AE9" s="154"/>
-      <c r="AF9" s="154"/>
-      <c r="AG9" s="155"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W9" s="42"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="46"/>
       <c r="AI9" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="21" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="137"/>
+      <c r="B10" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="35"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -2473,31 +2485,31 @@
       <c r="S10" s="36"/>
       <c r="T10" s="35"/>
       <c r="U10" s="37"/>
-      <c r="V10" s="45">
+      <c r="V10" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="46"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="52"/>
-      <c r="AB10" s="52"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="52"/>
-      <c r="AE10" s="52"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="53"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="141"/>
+      <c r="Z10" s="142"/>
+      <c r="AA10" s="142"/>
+      <c r="AB10" s="142"/>
+      <c r="AC10" s="142"/>
+      <c r="AD10" s="142"/>
+      <c r="AE10" s="142"/>
+      <c r="AF10" s="142"/>
+      <c r="AG10" s="143"/>
     </row>
     <row r="11" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="92" t="s">
+      <c r="A11" s="137"/>
+      <c r="B11" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -2513,31 +2525,31 @@
       <c r="S11" s="30"/>
       <c r="T11" s="29"/>
       <c r="U11" s="34"/>
-      <c r="V11" s="54">
+      <c r="V11" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="55"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="153"/>
-      <c r="Z11" s="154"/>
-      <c r="AA11" s="154"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="154"/>
-      <c r="AD11" s="154"/>
-      <c r="AE11" s="154"/>
-      <c r="AF11" s="154"/>
-      <c r="AG11" s="155"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="45"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="46"/>
     </row>
     <row r="12" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="137"/>
+      <c r="B12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -2553,12 +2565,12 @@
       <c r="S12" s="18"/>
       <c r="T12" s="17"/>
       <c r="U12" s="25"/>
-      <c r="V12" s="75">
+      <c r="V12" s="50">
         <f t="shared" ref="V12" si="2">SUM(G12:U12)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="76"/>
-      <c r="X12" s="77"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="52"/>
       <c r="Y12" s="26"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
@@ -2570,14 +2582,14 @@
       <c r="AG12" s="28"/>
     </row>
     <row r="13" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="92" t="s">
+      <c r="A13" s="137"/>
+      <c r="B13" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="29"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -2593,31 +2605,31 @@
       <c r="S13" s="30"/>
       <c r="T13" s="29"/>
       <c r="U13" s="32"/>
-      <c r="V13" s="54">
+      <c r="V13" s="41">
         <f t="shared" ref="V13" si="3">SUM(G13:U13)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="55"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="80"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="55"/>
     </row>
     <row r="14" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="60" t="s">
+      <c r="A14" s="137"/>
+      <c r="B14" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -2633,31 +2645,31 @@
       <c r="S14" s="18"/>
       <c r="T14" s="17"/>
       <c r="U14" s="31"/>
-      <c r="V14" s="75">
+      <c r="V14" s="50">
         <f t="shared" ref="V14" si="4">SUM(G14:U14)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="76"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="82"/>
-      <c r="AC14" s="82"/>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="83"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="121"/>
+      <c r="AA14" s="121"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="121"/>
+      <c r="AD14" s="121"/>
+      <c r="AE14" s="121"/>
+      <c r="AF14" s="121"/>
+      <c r="AG14" s="122"/>
     </row>
     <row r="15" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="92" t="s">
+      <c r="A15" s="137"/>
+      <c r="B15" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="29"/>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
@@ -2673,31 +2685,31 @@
       <c r="S15" s="30"/>
       <c r="T15" s="29"/>
       <c r="U15" s="32"/>
-      <c r="V15" s="54">
+      <c r="V15" s="41">
         <f t="shared" ref="V15" si="5">SUM(G15:U15)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="55"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="79"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="80"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="55"/>
     </row>
     <row r="16" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="60" t="s">
+      <c r="A16" s="137"/>
+      <c r="B16" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -2713,31 +2725,31 @@
       <c r="S16" s="18"/>
       <c r="T16" s="17"/>
       <c r="U16" s="31"/>
-      <c r="V16" s="75">
+      <c r="V16" s="50">
         <f t="shared" ref="V16" si="6">SUM(G16:U16)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="76"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="83"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="120"/>
+      <c r="Z16" s="121"/>
+      <c r="AA16" s="121"/>
+      <c r="AB16" s="121"/>
+      <c r="AC16" s="121"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="121"/>
+      <c r="AF16" s="121"/>
+      <c r="AG16" s="122"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="92" t="s">
+      <c r="A17" s="137"/>
+      <c r="B17" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="29"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -2753,31 +2765,31 @@
       <c r="S17" s="30"/>
       <c r="T17" s="29"/>
       <c r="U17" s="32"/>
-      <c r="V17" s="54">
+      <c r="V17" s="41">
         <f t="shared" ref="V17" si="7">SUM(G17:U17)</f>
         <v>0</v>
       </c>
-      <c r="W17" s="55"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="80"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="55"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="60" t="s">
+      <c r="A18" s="137"/>
+      <c r="B18" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -2793,31 +2805,31 @@
       <c r="S18" s="18"/>
       <c r="T18" s="17"/>
       <c r="U18" s="31"/>
-      <c r="V18" s="75">
+      <c r="V18" s="50">
         <f t="shared" ref="V18" si="8">SUM(G18:U18)</f>
         <v>0</v>
       </c>
-      <c r="W18" s="76"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-      <c r="AB18" s="82"/>
-      <c r="AC18" s="82"/>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="82"/>
-      <c r="AF18" s="82"/>
-      <c r="AG18" s="83"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="121"/>
+      <c r="AB18" s="121"/>
+      <c r="AC18" s="121"/>
+      <c r="AD18" s="121"/>
+      <c r="AE18" s="121"/>
+      <c r="AF18" s="121"/>
+      <c r="AG18" s="122"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="41"/>
-      <c r="B19" s="92" t="s">
+      <c r="A19" s="137"/>
+      <c r="B19" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="29"/>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -2833,31 +2845,31 @@
       <c r="S19" s="30"/>
       <c r="T19" s="29"/>
       <c r="U19" s="34"/>
-      <c r="V19" s="54">
+      <c r="V19" s="41">
         <f t="shared" ref="V19:V30" si="9">SUM(G19:U19)</f>
         <v>0</v>
       </c>
-      <c r="W19" s="55"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="80"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="55"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="60" t="s">
+      <c r="A20" s="137"/>
+      <c r="B20" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="17">
         <v>4</v>
       </c>
@@ -2875,34 +2887,34 @@
       <c r="S20" s="18"/>
       <c r="T20" s="17"/>
       <c r="U20" s="33"/>
-      <c r="V20" s="75">
+      <c r="V20" s="50">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="W20" s="76"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="82"/>
-      <c r="AA20" s="82"/>
-      <c r="AB20" s="82"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="83"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="121"/>
+      <c r="AD20" s="121"/>
+      <c r="AE20" s="121"/>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="122"/>
       <c r="AI20" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="41"/>
-      <c r="B21" s="92" t="s">
+      <c r="A21" s="137"/>
+      <c r="B21" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="94"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="29"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -2918,31 +2930,31 @@
       <c r="S21" s="30"/>
       <c r="T21" s="29"/>
       <c r="U21" s="34"/>
-      <c r="V21" s="54">
+      <c r="V21" s="41">
         <f>SUM(G21:U21)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="55"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="80"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="53"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="55"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="137"/>
+      <c r="B22" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="35"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
@@ -2958,31 +2970,31 @@
       <c r="S22" s="36"/>
       <c r="T22" s="35"/>
       <c r="U22" s="37"/>
-      <c r="V22" s="45">
+      <c r="V22" s="59">
         <f t="shared" ref="V22:V29" si="10">SUM(G22:U22)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="46"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="90"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="91"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="129"/>
+      <c r="AA22" s="129"/>
+      <c r="AB22" s="129"/>
+      <c r="AC22" s="129"/>
+      <c r="AD22" s="129"/>
+      <c r="AE22" s="129"/>
+      <c r="AF22" s="129"/>
+      <c r="AG22" s="130"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="41"/>
-      <c r="B23" s="92" t="s">
+      <c r="A23" s="137"/>
+      <c r="B23" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="29"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -2998,38 +3010,40 @@
       <c r="S23" s="30"/>
       <c r="T23" s="29"/>
       <c r="U23" s="34"/>
-      <c r="V23" s="54">
+      <c r="V23" s="41">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W23" s="55"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="80"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="55"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="137"/>
+      <c r="B24" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="35">
         <v>1.75</v>
       </c>
       <c r="H24" s="36">
         <v>2.5</v>
       </c>
-      <c r="I24" s="36"/>
+      <c r="I24" s="36">
+        <v>0.5</v>
+      </c>
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
@@ -3042,34 +3056,36 @@
       <c r="S24" s="36"/>
       <c r="T24" s="35"/>
       <c r="U24" s="37"/>
-      <c r="V24" s="45">
+      <c r="V24" s="59">
         <f t="shared" si="10"/>
-        <v>4.25</v>
-      </c>
-      <c r="W24" s="46"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="91"/>
+        <v>4.75</v>
+      </c>
+      <c r="W24" s="60"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="129"/>
+      <c r="AA24" s="129"/>
+      <c r="AB24" s="129"/>
+      <c r="AC24" s="129"/>
+      <c r="AD24" s="129"/>
+      <c r="AE24" s="129"/>
+      <c r="AF24" s="129"/>
+      <c r="AG24" s="130"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="92" t="s">
+      <c r="A25" s="137"/>
+      <c r="B25" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="94"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="29"/>
       <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30">
+        <v>1</v>
+      </c>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
@@ -3082,34 +3098,36 @@
       <c r="S25" s="30"/>
       <c r="T25" s="29"/>
       <c r="U25" s="34"/>
-      <c r="V25" s="54">
+      <c r="V25" s="41">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="55"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="79"/>
-      <c r="AA25" s="79"/>
-      <c r="AB25" s="79"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="80"/>
+        <v>1</v>
+      </c>
+      <c r="W25" s="42"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="54"/>
+      <c r="AG25" s="55"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="137"/>
+      <c r="B26" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
       <c r="G26" s="35"/>
       <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="I26" s="36">
+        <v>0.3</v>
+      </c>
       <c r="J26" s="36"/>
       <c r="K26" s="36"/>
       <c r="L26" s="36"/>
@@ -3122,34 +3140,36 @@
       <c r="S26" s="36"/>
       <c r="T26" s="35"/>
       <c r="U26" s="37"/>
-      <c r="V26" s="45">
+      <c r="V26" s="59">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="46"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="90"/>
-      <c r="AB26" s="90"/>
-      <c r="AC26" s="90"/>
-      <c r="AD26" s="90"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="91"/>
+        <v>0.3</v>
+      </c>
+      <c r="W26" s="60"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="128"/>
+      <c r="Z26" s="129"/>
+      <c r="AA26" s="129"/>
+      <c r="AB26" s="129"/>
+      <c r="AC26" s="129"/>
+      <c r="AD26" s="129"/>
+      <c r="AE26" s="129"/>
+      <c r="AF26" s="129"/>
+      <c r="AG26" s="130"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="152" t="s">
+      <c r="A27" s="137"/>
+      <c r="B27" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="94"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30">
+        <v>0.3</v>
+      </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -3162,34 +3182,36 @@
       <c r="S27" s="30"/>
       <c r="T27" s="29"/>
       <c r="U27" s="34"/>
-      <c r="V27" s="54">
+      <c r="V27" s="41">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="55"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="80"/>
+        <v>0.3</v>
+      </c>
+      <c r="W27" s="42"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="55"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="41"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="137"/>
+      <c r="B28" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="35"/>
       <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="I28" s="36">
+        <v>1.4</v>
+      </c>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
@@ -3202,36 +3224,38 @@
       <c r="S28" s="36"/>
       <c r="T28" s="35"/>
       <c r="U28" s="37"/>
-      <c r="V28" s="45">
+      <c r="V28" s="59">
         <f t="shared" ref="V28" si="11">SUM(G28:U28)</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="46"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="90"/>
-      <c r="AA28" s="90"/>
-      <c r="AB28" s="90"/>
-      <c r="AC28" s="90"/>
-      <c r="AD28" s="90"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="90"/>
-      <c r="AG28" s="91"/>
+        <v>1.4</v>
+      </c>
+      <c r="W28" s="60"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="129"/>
+      <c r="AA28" s="129"/>
+      <c r="AB28" s="129"/>
+      <c r="AC28" s="129"/>
+      <c r="AD28" s="129"/>
+      <c r="AE28" s="129"/>
+      <c r="AF28" s="129"/>
+      <c r="AG28" s="130"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="92" t="s">
+      <c r="A29" s="137"/>
+      <c r="B29" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="29"/>
       <c r="H29" s="30">
         <v>1</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="30">
+        <v>1.75</v>
+      </c>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
@@ -3244,32 +3268,36 @@
       <c r="S29" s="30"/>
       <c r="T29" s="29"/>
       <c r="U29" s="34"/>
-      <c r="V29" s="54">
+      <c r="V29" s="41">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="W29" s="55"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="80"/>
+        <v>2.75</v>
+      </c>
+      <c r="W29" s="42"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="55"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="41"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
+      <c r="A30" s="137"/>
+      <c r="B30" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
+      <c r="I30" s="18">
+        <v>0.25</v>
+      </c>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
@@ -3282,31 +3310,31 @@
       <c r="S30" s="18"/>
       <c r="T30" s="17"/>
       <c r="U30" s="33"/>
-      <c r="V30" s="75">
+      <c r="V30" s="50">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="76"/>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="81"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="82"/>
-      <c r="AB30" s="82"/>
-      <c r="AC30" s="82"/>
-      <c r="AD30" s="82"/>
-      <c r="AE30" s="82"/>
-      <c r="AF30" s="82"/>
-      <c r="AG30" s="83"/>
+        <v>0.25</v>
+      </c>
+      <c r="W30" s="51"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="120"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="121"/>
+      <c r="AC30" s="121"/>
+      <c r="AD30" s="121"/>
+      <c r="AE30" s="121"/>
+      <c r="AF30" s="121"/>
+      <c r="AG30" s="122"/>
     </row>
     <row r="31" spans="1:35" ht="21" customHeight="1">
-      <c r="A31" s="41"/>
-      <c r="B31" s="57" t="s">
+      <c r="A31" s="137"/>
+      <c r="B31" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="146"/>
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3322,34 +3350,34 @@
       <c r="S31" s="12"/>
       <c r="T31" s="11"/>
       <c r="U31" s="13"/>
-      <c r="V31" s="72">
+      <c r="V31" s="131">
         <f t="shared" ref="V31:V33" si="12">SUM(G31:U31)</f>
         <v>0</v>
       </c>
-      <c r="W31" s="73"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="63"/>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="64"/>
-      <c r="AB31" s="64"/>
-      <c r="AC31" s="64"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="64"/>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="65"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="133"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="148"/>
+      <c r="AA31" s="148"/>
+      <c r="AB31" s="148"/>
+      <c r="AC31" s="148"/>
+      <c r="AD31" s="148"/>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="148"/>
+      <c r="AG31" s="149"/>
       <c r="AI31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A32" s="41"/>
-      <c r="B32" s="60" t="s">
+      <c r="A32" s="137"/>
+      <c r="B32" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -3365,36 +3393,38 @@
       <c r="S32" s="18"/>
       <c r="T32" s="17"/>
       <c r="U32" s="19"/>
-      <c r="V32" s="75">
+      <c r="V32" s="50">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W32" s="76"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="67"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="67"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="67"/>
-      <c r="AG32" s="68"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="150"/>
+      <c r="Z32" s="151"/>
+      <c r="AA32" s="151"/>
+      <c r="AB32" s="151"/>
+      <c r="AC32" s="151"/>
+      <c r="AD32" s="151"/>
+      <c r="AE32" s="151"/>
+      <c r="AF32" s="151"/>
+      <c r="AG32" s="152"/>
     </row>
     <row r="33" spans="1:35" ht="21" customHeight="1">
-      <c r="A33" s="41"/>
-      <c r="B33" s="57" t="s">
+      <c r="A33" s="137"/>
+      <c r="B33" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="146"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12">
         <v>2.7</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="12">
+        <v>0.75</v>
+      </c>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
@@ -3407,33 +3437,33 @@
       <c r="S33" s="12"/>
       <c r="T33" s="11"/>
       <c r="U33" s="13"/>
-      <c r="V33" s="72">
+      <c r="V33" s="131">
         <f t="shared" si="12"/>
-        <v>2.7</v>
-      </c>
-      <c r="W33" s="73"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="63"/>
-      <c r="Z33" s="64"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="64"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="65"/>
+        <v>3.45</v>
+      </c>
+      <c r="W33" s="132"/>
+      <c r="X33" s="133"/>
+      <c r="Y33" s="147"/>
+      <c r="Z33" s="148"/>
+      <c r="AA33" s="148"/>
+      <c r="AB33" s="148"/>
+      <c r="AC33" s="148"/>
+      <c r="AD33" s="148"/>
+      <c r="AE33" s="148"/>
+      <c r="AF33" s="148"/>
+      <c r="AG33" s="149"/>
       <c r="AI33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="21" customHeight="1" thickBot="1">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="136"/>
       <c r="G34" s="21">
         <f t="shared" ref="G34:U34" si="13">SUM(G8:G33)</f>
         <v>7</v>
@@ -3444,7 +3474,7 @@
       </c>
       <c r="I34" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J34" s="21">
         <f t="shared" si="13"/>
@@ -3494,18 +3524,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V34" s="85"/>
-      <c r="W34" s="86"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="70"/>
-      <c r="AA34" s="70"/>
-      <c r="AB34" s="70"/>
-      <c r="AC34" s="70"/>
-      <c r="AD34" s="70"/>
-      <c r="AE34" s="70"/>
-      <c r="AF34" s="70"/>
-      <c r="AG34" s="71"/>
+      <c r="V34" s="124"/>
+      <c r="W34" s="125"/>
+      <c r="X34" s="126"/>
+      <c r="Y34" s="153"/>
+      <c r="Z34" s="154"/>
+      <c r="AA34" s="154"/>
+      <c r="AB34" s="154"/>
+      <c r="AC34" s="154"/>
+      <c r="AD34" s="154"/>
+      <c r="AE34" s="154"/>
+      <c r="AF34" s="154"/>
+      <c r="AG34" s="155"/>
     </row>
     <row r="35" spans="1:35" ht="21.75" customHeight="1" thickBot="1">
       <c r="B35" s="3"/>
@@ -3526,16 +3556,16 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="84" t="s">
+      <c r="T35" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="84"/>
-      <c r="V35" s="88">
+      <c r="U35" s="123"/>
+      <c r="V35" s="127">
         <f>SUM(V8:X33)</f>
-        <v>14</v>
-      </c>
-      <c r="W35" s="88"/>
-      <c r="X35" s="88"/>
+        <v>21.000000000000004</v>
+      </c>
+      <c r="W35" s="127"/>
+      <c r="X35" s="127"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
@@ -3558,60 +3588,30 @@
     <row r="45" spans="1:35" ht="19.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AG9"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="Y13:AG13"/>
-    <mergeCell ref="Y11:AG11"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="Y5:AG7"/>
-    <mergeCell ref="V5:X7"/>
-    <mergeCell ref="G5:U5"/>
-    <mergeCell ref="AC1:AG2"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="Y15:AG15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AG18"/>
-    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="A10:A33"/>
+    <mergeCell ref="Y8:AG8"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="Y10:AG10"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="Y31:AG31"/>
+    <mergeCell ref="Y33:AG33"/>
+    <mergeCell ref="Y32:AG32"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="Y34:AG34"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y19:AG19"/>
+    <mergeCell ref="Y20:AG20"/>
+    <mergeCell ref="Y21:AG21"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AG16"/>
+    <mergeCell ref="V12:X12"/>
     <mergeCell ref="Y14:AG14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="V15:X15"/>
@@ -3636,30 +3636,60 @@
     <mergeCell ref="V31:X31"/>
     <mergeCell ref="V30:X30"/>
     <mergeCell ref="Y28:AG28"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="A10:A33"/>
-    <mergeCell ref="Y8:AG8"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="Y10:AG10"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="Y31:AG31"/>
-    <mergeCell ref="Y33:AG33"/>
-    <mergeCell ref="Y32:AG32"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="Y34:AG34"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y19:AG19"/>
-    <mergeCell ref="Y20:AG20"/>
-    <mergeCell ref="Y21:AG21"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AG16"/>
-    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="Y5:AG7"/>
+    <mergeCell ref="V5:X7"/>
+    <mergeCell ref="G5:U5"/>
+    <mergeCell ref="AC1:AG2"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AG9"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="Y13:AG13"/>
+    <mergeCell ref="Y11:AG11"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="Y15:AG15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AG18"/>
+    <mergeCell ref="V14:X14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/doc/other_doc/5_作業時間票(香川2次).xlsx
+++ b/doc/other_doc/5_作業時間票(香川2次).xlsx
@@ -1285,6 +1285,183 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1297,16 +1474,258 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1318,425 +1737,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -2046,8 +2046,8 @@
   </sheetPr>
   <dimension ref="A1:AI45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB35" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2067,97 +2067,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="107" t="s">
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="102"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="101" t="s">
+      <c r="I1" s="134"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="101" t="s">
+      <c r="L1" s="134"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72" t="s">
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="73" t="s">
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="66" t="s">
+      <c r="Y1" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="73" t="s">
+      <c r="Z1" s="99"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="68"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99"/>
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="100"/>
       <c r="AH1" s="1"/>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="107" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="101" t="s">
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="102"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="104" t="s">
+      <c r="L2" s="134"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="74">
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="106">
         <v>42909</v>
       </c>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="71"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="103"/>
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="8.25" customHeight="1" thickTop="1">
@@ -2229,53 +2229,53 @@
       <c r="AG4" s="3"/>
     </row>
     <row r="5" spans="1:35" ht="19.5" customHeight="1">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="91" t="s">
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="93"/>
-      <c r="V5" s="82" t="s">
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+      <c r="L5" s="124"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="W5" s="83"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="75" t="s">
+      <c r="W5" s="115"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="68"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="99"/>
+      <c r="AG5" s="100"/>
     </row>
     <row r="6" spans="1:35" ht="19.5" customHeight="1">
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="113"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="145"/>
       <c r="G6" s="22">
         <v>1</v>
       </c>
@@ -2321,25 +2321,25 @@
       <c r="U6" s="24">
         <v>15</v>
       </c>
-      <c r="V6" s="85"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="78"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="118"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="108"/>
+      <c r="Z6" s="109"/>
+      <c r="AA6" s="109"/>
+      <c r="AB6" s="109"/>
+      <c r="AC6" s="109"/>
+      <c r="AD6" s="109"/>
+      <c r="AE6" s="109"/>
+      <c r="AF6" s="109"/>
+      <c r="AG6" s="110"/>
     </row>
     <row r="7" spans="1:35" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="116"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -2355,27 +2355,27 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="7"/>
-      <c r="V7" s="88"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="81"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="112"/>
+      <c r="AG7" s="113"/>
     </row>
     <row r="8" spans="1:35" ht="24" customHeight="1" thickTop="1">
-      <c r="B8" s="117" t="s">
+      <c r="B8" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
       <c r="G8" s="8">
         <v>0.5</v>
       </c>
@@ -2393,34 +2393,34 @@
       <c r="S8" s="9"/>
       <c r="T8" s="8"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="63">
+      <c r="V8" s="95">
         <f t="shared" ref="V8:V11" si="0">SUM(G8:U8)</f>
         <v>0.5</v>
       </c>
-      <c r="W8" s="64"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="138"/>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="139"/>
-      <c r="AB8" s="139"/>
-      <c r="AC8" s="139"/>
-      <c r="AD8" s="139"/>
-      <c r="AE8" s="139"/>
-      <c r="AF8" s="139"/>
-      <c r="AG8" s="140"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="97"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="44"/>
       <c r="AI8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
       <c r="A9"/>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="29">
         <v>0.75</v>
       </c>
@@ -2442,34 +2442,34 @@
       <c r="S9" s="30"/>
       <c r="T9" s="29"/>
       <c r="U9" s="34"/>
-      <c r="V9" s="41">
+      <c r="V9" s="54">
         <f t="shared" ref="V9" si="1">SUM(G9:U9)</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="W9" s="42"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="46"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="154"/>
+      <c r="AA9" s="154"/>
+      <c r="AB9" s="154"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="154"/>
+      <c r="AE9" s="154"/>
+      <c r="AF9" s="154"/>
+      <c r="AG9" s="155"/>
       <c r="AI9" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="21" customHeight="1">
-      <c r="A10" s="137"/>
-      <c r="B10" s="47" t="s">
+      <c r="A10" s="41"/>
+      <c r="B10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="35"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
@@ -2485,31 +2485,31 @@
       <c r="S10" s="36"/>
       <c r="T10" s="35"/>
       <c r="U10" s="37"/>
-      <c r="V10" s="59">
+      <c r="V10" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="60"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="141"/>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="142"/>
-      <c r="AB10" s="142"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="142"/>
-      <c r="AE10" s="142"/>
-      <c r="AF10" s="142"/>
-      <c r="AG10" s="143"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="53"/>
     </row>
     <row r="11" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="137"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="29"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -2525,31 +2525,31 @@
       <c r="S11" s="30"/>
       <c r="T11" s="29"/>
       <c r="U11" s="34"/>
-      <c r="V11" s="41">
+      <c r="V11" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="42"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="46"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="154"/>
+      <c r="AF11" s="154"/>
+      <c r="AG11" s="155"/>
     </row>
     <row r="12" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="137"/>
-      <c r="B12" s="56" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -2565,12 +2565,12 @@
       <c r="S12" s="18"/>
       <c r="T12" s="17"/>
       <c r="U12" s="25"/>
-      <c r="V12" s="50">
+      <c r="V12" s="75">
         <f t="shared" ref="V12" si="2">SUM(G12:U12)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="51"/>
-      <c r="X12" s="52"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="77"/>
       <c r="Y12" s="26"/>
       <c r="Z12" s="27"/>
       <c r="AA12" s="27"/>
@@ -2582,14 +2582,14 @@
       <c r="AG12" s="28"/>
     </row>
     <row r="13" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="137"/>
-      <c r="B13" s="38" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="29"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -2605,31 +2605,31 @@
       <c r="S13" s="30"/>
       <c r="T13" s="29"/>
       <c r="U13" s="32"/>
-      <c r="V13" s="41">
+      <c r="V13" s="54">
         <f t="shared" ref="V13" si="3">SUM(G13:U13)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="42"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="79"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="79"/>
+      <c r="AG13" s="80"/>
     </row>
     <row r="14" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="137"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -2645,31 +2645,31 @@
       <c r="S14" s="18"/>
       <c r="T14" s="17"/>
       <c r="U14" s="31"/>
-      <c r="V14" s="50">
+      <c r="V14" s="75">
         <f t="shared" ref="V14" si="4">SUM(G14:U14)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="51"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="121"/>
-      <c r="AA14" s="121"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="121"/>
-      <c r="AD14" s="121"/>
-      <c r="AE14" s="121"/>
-      <c r="AF14" s="121"/>
-      <c r="AG14" s="122"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="83"/>
     </row>
     <row r="15" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="137"/>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="41"/>
+      <c r="B15" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="29"/>
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
@@ -2685,31 +2685,31 @@
       <c r="S15" s="30"/>
       <c r="T15" s="29"/>
       <c r="U15" s="32"/>
-      <c r="V15" s="41">
+      <c r="V15" s="54">
         <f t="shared" ref="V15" si="5">SUM(G15:U15)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="42"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="79"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="80"/>
     </row>
     <row r="16" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="137"/>
-      <c r="B16" s="56" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="17"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -2725,31 +2725,31 @@
       <c r="S16" s="18"/>
       <c r="T16" s="17"/>
       <c r="U16" s="31"/>
-      <c r="V16" s="50">
+      <c r="V16" s="75">
         <f t="shared" ref="V16" si="6">SUM(G16:U16)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="51"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="121"/>
-      <c r="AA16" s="121"/>
-      <c r="AB16" s="121"/>
-      <c r="AC16" s="121"/>
-      <c r="AD16" s="121"/>
-      <c r="AE16" s="121"/>
-      <c r="AF16" s="121"/>
-      <c r="AG16" s="122"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="82"/>
+      <c r="AB16" s="82"/>
+      <c r="AC16" s="82"/>
+      <c r="AD16" s="82"/>
+      <c r="AE16" s="82"/>
+      <c r="AF16" s="82"/>
+      <c r="AG16" s="83"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="137"/>
-      <c r="B17" s="38" t="s">
+      <c r="A17" s="41"/>
+      <c r="B17" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="29"/>
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
@@ -2765,31 +2765,31 @@
       <c r="S17" s="30"/>
       <c r="T17" s="29"/>
       <c r="U17" s="32"/>
-      <c r="V17" s="41">
+      <c r="V17" s="54">
         <f t="shared" ref="V17" si="7">SUM(G17:U17)</f>
         <v>0</v>
       </c>
-      <c r="W17" s="42"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="54"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="54"/>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="80"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="137"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="41"/>
+      <c r="B18" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -2805,31 +2805,31 @@
       <c r="S18" s="18"/>
       <c r="T18" s="17"/>
       <c r="U18" s="31"/>
-      <c r="V18" s="50">
+      <c r="V18" s="75">
         <f t="shared" ref="V18" si="8">SUM(G18:U18)</f>
         <v>0</v>
       </c>
-      <c r="W18" s="51"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="121"/>
-      <c r="AB18" s="121"/>
-      <c r="AC18" s="121"/>
-      <c r="AD18" s="121"/>
-      <c r="AE18" s="121"/>
-      <c r="AF18" s="121"/>
-      <c r="AG18" s="122"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="82"/>
+      <c r="AB18" s="82"/>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="83"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="137"/>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="41"/>
+      <c r="B19" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
       <c r="G19" s="29"/>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
@@ -2845,31 +2845,31 @@
       <c r="S19" s="30"/>
       <c r="T19" s="29"/>
       <c r="U19" s="34"/>
-      <c r="V19" s="41">
+      <c r="V19" s="54">
         <f t="shared" ref="V19:V30" si="9">SUM(G19:U19)</f>
         <v>0</v>
       </c>
-      <c r="W19" s="42"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="54"/>
-      <c r="AA19" s="54"/>
-      <c r="AB19" s="54"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="79"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="79"/>
+      <c r="AF19" s="79"/>
+      <c r="AG19" s="80"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="137"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="41"/>
+      <c r="B20" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="17">
         <v>4</v>
       </c>
@@ -2887,34 +2887,34 @@
       <c r="S20" s="18"/>
       <c r="T20" s="17"/>
       <c r="U20" s="33"/>
-      <c r="V20" s="50">
+      <c r="V20" s="75">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="W20" s="51"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="120"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="121"/>
-      <c r="AD20" s="121"/>
-      <c r="AE20" s="121"/>
-      <c r="AF20" s="121"/>
-      <c r="AG20" s="122"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="82"/>
+      <c r="AB20" s="82"/>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="83"/>
       <c r="AI20" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="137"/>
-      <c r="B21" s="38" t="s">
+      <c r="A21" s="41"/>
+      <c r="B21" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
@@ -2930,31 +2930,31 @@
       <c r="S21" s="30"/>
       <c r="T21" s="29"/>
       <c r="U21" s="34"/>
-      <c r="V21" s="41">
+      <c r="V21" s="54">
         <f>SUM(G21:U21)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="42"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="80"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="137"/>
-      <c r="B22" s="47" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="35"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
@@ -2970,31 +2970,31 @@
       <c r="S22" s="36"/>
       <c r="T22" s="35"/>
       <c r="U22" s="37"/>
-      <c r="V22" s="59">
+      <c r="V22" s="45">
         <f t="shared" ref="V22:V29" si="10">SUM(G22:U22)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="60"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="129"/>
-      <c r="AA22" s="129"/>
-      <c r="AB22" s="129"/>
-      <c r="AC22" s="129"/>
-      <c r="AD22" s="129"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="129"/>
-      <c r="AG22" s="130"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="94"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="137"/>
-      <c r="B23" s="38" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
       <c r="G23" s="29"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
@@ -3010,31 +3010,31 @@
       <c r="S23" s="30"/>
       <c r="T23" s="29"/>
       <c r="U23" s="34"/>
-      <c r="V23" s="41">
+      <c r="V23" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="W23" s="42"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="80"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="137"/>
-      <c r="B24" s="47" t="s">
+      <c r="A24" s="41"/>
+      <c r="B24" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="35">
         <v>1.75</v>
       </c>
@@ -3056,31 +3056,31 @@
       <c r="S24" s="36"/>
       <c r="T24" s="35"/>
       <c r="U24" s="37"/>
-      <c r="V24" s="59">
+      <c r="V24" s="45">
         <f t="shared" si="10"/>
         <v>4.75</v>
       </c>
-      <c r="W24" s="60"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="129"/>
-      <c r="AA24" s="129"/>
-      <c r="AB24" s="129"/>
-      <c r="AC24" s="129"/>
-      <c r="AD24" s="129"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="129"/>
-      <c r="AG24" s="130"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="94"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="137"/>
-      <c r="B25" s="38" t="s">
+      <c r="A25" s="41"/>
+      <c r="B25" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
       <c r="G25" s="29"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30">
@@ -3098,31 +3098,31 @@
       <c r="S25" s="30"/>
       <c r="T25" s="29"/>
       <c r="U25" s="34"/>
-      <c r="V25" s="41">
+      <c r="V25" s="54">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="W25" s="42"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="79"/>
+      <c r="AB25" s="79"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="80"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A26" s="137"/>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="41"/>
+      <c r="B26" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="35"/>
       <c r="H26" s="36"/>
       <c r="I26" s="36">
@@ -3140,31 +3140,31 @@
       <c r="S26" s="36"/>
       <c r="T26" s="35"/>
       <c r="U26" s="37"/>
-      <c r="V26" s="59">
+      <c r="V26" s="45">
         <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
-      <c r="W26" s="60"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="129"/>
-      <c r="AA26" s="129"/>
-      <c r="AB26" s="129"/>
-      <c r="AC26" s="129"/>
-      <c r="AD26" s="129"/>
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="129"/>
-      <c r="AG26" s="130"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="94"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="137"/>
-      <c r="B27" s="62" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30">
@@ -3182,37 +3182,39 @@
       <c r="S27" s="30"/>
       <c r="T27" s="29"/>
       <c r="U27" s="34"/>
-      <c r="V27" s="41">
+      <c r="V27" s="54">
         <f t="shared" si="10"/>
         <v>0.3</v>
       </c>
-      <c r="W27" s="42"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="54"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="54"/>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="79"/>
+      <c r="AA27" s="79"/>
+      <c r="AB27" s="79"/>
+      <c r="AC27" s="79"/>
+      <c r="AD27" s="79"/>
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="79"/>
+      <c r="AG27" s="80"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="137"/>
-      <c r="B28" s="47" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="35"/>
       <c r="H28" s="36"/>
       <c r="I28" s="36">
         <v>1.4</v>
       </c>
-      <c r="J28" s="36"/>
+      <c r="J28" s="36">
+        <v>1</v>
+      </c>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
@@ -3224,31 +3226,31 @@
       <c r="S28" s="36"/>
       <c r="T28" s="35"/>
       <c r="U28" s="37"/>
-      <c r="V28" s="59">
+      <c r="V28" s="45">
         <f t="shared" ref="V28" si="11">SUM(G28:U28)</f>
-        <v>1.4</v>
-      </c>
-      <c r="W28" s="60"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="129"/>
-      <c r="AA28" s="129"/>
-      <c r="AB28" s="129"/>
-      <c r="AC28" s="129"/>
-      <c r="AD28" s="129"/>
-      <c r="AE28" s="129"/>
-      <c r="AF28" s="129"/>
-      <c r="AG28" s="130"/>
+        <v>2.4</v>
+      </c>
+      <c r="W28" s="46"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="93"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="93"/>
+      <c r="AG28" s="94"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="137"/>
-      <c r="B29" s="38" t="s">
+      <c r="A29" s="41"/>
+      <c r="B29" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
       <c r="G29" s="29"/>
       <c r="H29" s="30">
         <v>1</v>
@@ -3268,31 +3270,31 @@
       <c r="S29" s="30"/>
       <c r="T29" s="29"/>
       <c r="U29" s="34"/>
-      <c r="V29" s="41">
+      <c r="V29" s="54">
         <f t="shared" si="10"/>
         <v>2.75</v>
       </c>
-      <c r="W29" s="42"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="54"/>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="80"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="137"/>
-      <c r="B30" s="56" t="s">
+      <c r="A30" s="41"/>
+      <c r="B30" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="58"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="17"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18">
@@ -3310,31 +3312,31 @@
       <c r="S30" s="18"/>
       <c r="T30" s="17"/>
       <c r="U30" s="33"/>
-      <c r="V30" s="50">
+      <c r="V30" s="75">
         <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
-      <c r="W30" s="51"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="121"/>
-      <c r="AD30" s="121"/>
-      <c r="AE30" s="121"/>
-      <c r="AF30" s="121"/>
-      <c r="AG30" s="122"/>
+      <c r="W30" s="76"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="81"/>
+      <c r="Z30" s="82"/>
+      <c r="AA30" s="82"/>
+      <c r="AB30" s="82"/>
+      <c r="AC30" s="82"/>
+      <c r="AD30" s="82"/>
+      <c r="AE30" s="82"/>
+      <c r="AF30" s="82"/>
+      <c r="AG30" s="83"/>
     </row>
     <row r="31" spans="1:35" ht="21" customHeight="1">
-      <c r="A31" s="137"/>
-      <c r="B31" s="144" t="s">
+      <c r="A31" s="41"/>
+      <c r="B31" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="146"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="11"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
@@ -3350,34 +3352,34 @@
       <c r="S31" s="12"/>
       <c r="T31" s="11"/>
       <c r="U31" s="13"/>
-      <c r="V31" s="131">
+      <c r="V31" s="72">
         <f t="shared" ref="V31:V33" si="12">SUM(G31:U31)</f>
         <v>0</v>
       </c>
-      <c r="W31" s="132"/>
-      <c r="X31" s="133"/>
-      <c r="Y31" s="147"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="148"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="148"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="148"/>
-      <c r="AF31" s="148"/>
-      <c r="AG31" s="149"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="65"/>
       <c r="AI31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="21" customHeight="1">
-      <c r="A32" s="137"/>
-      <c r="B32" s="56" t="s">
+      <c r="A32" s="41"/>
+      <c r="B32" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="17"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -3393,31 +3395,31 @@
       <c r="S32" s="18"/>
       <c r="T32" s="17"/>
       <c r="U32" s="19"/>
-      <c r="V32" s="50">
+      <c r="V32" s="75">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W32" s="51"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="150"/>
-      <c r="Z32" s="151"/>
-      <c r="AA32" s="151"/>
-      <c r="AB32" s="151"/>
-      <c r="AC32" s="151"/>
-      <c r="AD32" s="151"/>
-      <c r="AE32" s="151"/>
-      <c r="AF32" s="151"/>
-      <c r="AG32" s="152"/>
+      <c r="W32" s="76"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="67"/>
+      <c r="AG32" s="68"/>
     </row>
     <row r="33" spans="1:35" ht="21" customHeight="1">
-      <c r="A33" s="137"/>
-      <c r="B33" s="144" t="s">
+      <c r="A33" s="41"/>
+      <c r="B33" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="146"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="11"/>
       <c r="H33" s="12">
         <v>2.7</v>
@@ -3437,33 +3439,33 @@
       <c r="S33" s="12"/>
       <c r="T33" s="11"/>
       <c r="U33" s="13"/>
-      <c r="V33" s="131">
+      <c r="V33" s="72">
         <f t="shared" si="12"/>
         <v>3.45</v>
       </c>
-      <c r="W33" s="132"/>
-      <c r="X33" s="133"/>
-      <c r="Y33" s="147"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="148"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="148"/>
-      <c r="AF33" s="148"/>
-      <c r="AG33" s="149"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="65"/>
       <c r="AI33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="21" customHeight="1" thickBot="1">
-      <c r="B34" s="134" t="s">
+      <c r="B34" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="136"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="21">
         <f t="shared" ref="G34:U34" si="13">SUM(G8:G33)</f>
         <v>7</v>
@@ -3478,7 +3480,7 @@
       </c>
       <c r="J34" s="21">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="21">
         <f t="shared" si="13"/>
@@ -3524,18 +3526,18 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="V34" s="124"/>
-      <c r="W34" s="125"/>
-      <c r="X34" s="126"/>
-      <c r="Y34" s="153"/>
-      <c r="Z34" s="154"/>
-      <c r="AA34" s="154"/>
-      <c r="AB34" s="154"/>
-      <c r="AC34" s="154"/>
-      <c r="AD34" s="154"/>
-      <c r="AE34" s="154"/>
-      <c r="AF34" s="154"/>
-      <c r="AG34" s="155"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="90"/>
+      <c r="Y34" s="69"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="70"/>
+      <c r="AE34" s="70"/>
+      <c r="AF34" s="70"/>
+      <c r="AG34" s="71"/>
     </row>
     <row r="35" spans="1:35" ht="21.75" customHeight="1" thickBot="1">
       <c r="B35" s="3"/>
@@ -3556,16 +3558,16 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="123" t="s">
+      <c r="T35" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="U35" s="123"/>
-      <c r="V35" s="127">
+      <c r="U35" s="87"/>
+      <c r="V35" s="91">
         <f>SUM(V8:X33)</f>
-        <v>21.000000000000004</v>
-      </c>
-      <c r="W35" s="127"/>
-      <c r="X35" s="127"/>
+        <v>22.000000000000004</v>
+      </c>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
@@ -3588,6 +3590,84 @@
     <row r="45" spans="1:35" ht="19.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="102">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AG9"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="Y13:AG13"/>
+    <mergeCell ref="Y11:AG11"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="Y15:AG15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AG18"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y1:AA2"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="Y5:AG7"/>
+    <mergeCell ref="V5:X7"/>
+    <mergeCell ref="G5:U5"/>
+    <mergeCell ref="AC1:AG2"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="AB1:AB2"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="Y14:AG14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AG17"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y30:AG30"/>
+    <mergeCell ref="Y22:AG22"/>
+    <mergeCell ref="Y23:AG23"/>
+    <mergeCell ref="Y24:AG24"/>
+    <mergeCell ref="Y25:AG25"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AG26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AG27"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AG29"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y28:AG28"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="A10:A33"/>
     <mergeCell ref="Y8:AG8"/>
@@ -3612,89 +3692,11 @@
     <mergeCell ref="V16:X16"/>
     <mergeCell ref="Y16:AG16"/>
     <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y14:AG14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AG17"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y30:AG30"/>
-    <mergeCell ref="Y22:AG22"/>
-    <mergeCell ref="Y23:AG23"/>
-    <mergeCell ref="Y24:AG24"/>
-    <mergeCell ref="Y25:AG25"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AG26"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AG27"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AG29"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y28:AG28"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y1:AA2"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="Y5:AG7"/>
-    <mergeCell ref="V5:X7"/>
-    <mergeCell ref="G5:U5"/>
-    <mergeCell ref="AC1:AG2"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AG9"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="Y13:AG13"/>
-    <mergeCell ref="Y11:AG11"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="Y15:AG15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AG18"/>
-    <mergeCell ref="V14:X14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.31496062992125984" top="0.35433070866141736" bottom="0.27559055118110237" header="0.27559055118110237" footer="0.27559055118110237"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" horizontalDpi="400" verticalDpi="400" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" fitToWidth="0" orientation="landscape" horizontalDpi="400" verticalDpi="400" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;R&amp;"Arial,標準"&amp;10©&amp;"ＭＳ Ｐゴシック,標準"　富士通ラーニングメディア</oddFooter>
   </headerFooter>
